--- a/Temp and Percip Data.xlsx
+++ b/Temp and Percip Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\OneDrive\Desktop\GWU\DATS 6103\Final Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\US Vachesam\Academic\Class Projects\IDM\IDM Final Project\DATS_6103_Team-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB5D88B-6598-419B-9B64-0728DEF94C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12A02D0-5192-44BD-AA7A-90ABD485A5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="17385" activeTab="1" xr2:uid="{BB546BE4-8558-451E-B6B5-F6FB8ED04314}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{BB546BE4-8558-451E-B6B5-F6FB8ED04314}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -624,12 +624,12 @@
       <selection activeCell="B552" sqref="B503:B552"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -679,7 +679,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -729,7 +729,7 @@
         <v>45.45</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -779,7 +779,7 @@
         <v>35.65</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -829,7 +829,7 @@
         <v>45.2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -879,7 +879,7 @@
         <v>58.42</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -929,7 +929,7 @@
         <v>51.93</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -979,7 +979,7 @@
         <v>55.97</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>59.89</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>61.67</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>53.61</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>53.62</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>49.37</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>72.81</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>38.51</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>46.32</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>53.79</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>40.97</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>42.17</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>45.04</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>65.55</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>53.03</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>45.35</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>59.73</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>46.3</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>59.29</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>56.2</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>56.4</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>53.4</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>56.8</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>55.3</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>56.7</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>56.4</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>57.3</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>55.3</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>54.4</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>56.7</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>57.2</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>56.3</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>55.9</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>55.6</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>57.3</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>56.9</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>56.3</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>57.9</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>41.7</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>22</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>11.93</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>22</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>22</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>7.35</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>22</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>13.37</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>22</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>22</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>26.61</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>22</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>11.61</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>22</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>5.66</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>22</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>14.43</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>22</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>9.39</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>22</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>23.09</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>22</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>12.26</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>22</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>8.15</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>22</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>22</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>9.77</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>22</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>7.66</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>22</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>22</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>13.24</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>22</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>8.86</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>22</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>21.55</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>22</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>9.81</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>22</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>14.27</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>22</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>7.18</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>22</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>29.44</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>22</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>22</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>65.099999999999994</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>22</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>22</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>64.400000000000006</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>22</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>65.400000000000006</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>22</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>65.400000000000006</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>22</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>65.099999999999994</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>22</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>22</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>65.599999999999994</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>22</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>66.400000000000006</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>22</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>66.2</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>22</v>
       </c>
@@ -4979,7 +4979,7 @@
         <v>65.7</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>22</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>63.9</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>22</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>65.5</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>22</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>65.599999999999994</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>22</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>68.099999999999994</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>22</v>
       </c>
@@ -5229,7 +5229,7 @@
         <v>68.3</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>22</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>67.099999999999994</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>22</v>
       </c>
@@ -5329,7 +5329,7 @@
         <v>68.2</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>22</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>67.2</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>22</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>66.099999999999994</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>22</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>67.8</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>22</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>65.599999999999994</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>22</v>
       </c>
@@ -5579,7 +5579,7 @@
         <v>65.900000000000006</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>22</v>
       </c>
@@ -5629,7 +5629,7 @@
         <v>65.2</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>22</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>21</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>33.36</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>21</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>45.77</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>21</v>
       </c>
@@ -5829,7 +5829,7 @@
         <v>33.92</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>21</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>32.020000000000003</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>21</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>31.58</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>21</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>24.09</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>21</v>
       </c>
@@ -6029,7 +6029,7 @@
         <v>41.95</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>21</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>21</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>50.86</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>21</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>42.57</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>21</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>37.61</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>21</v>
       </c>
@@ -6279,7 +6279,7 @@
         <v>49.83</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>21</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>26.91</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>21</v>
       </c>
@@ -6379,7 +6379,7 @@
         <v>42.09</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>21</v>
       </c>
@@ -6429,7 +6429,7 @@
         <v>39.47</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>21</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>39.85</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>21</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>35.97</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>21</v>
       </c>
@@ -6579,7 +6579,7 @@
         <v>43.1</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>21</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>49.23</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>21</v>
       </c>
@@ -6679,7 +6679,7 @@
         <v>49.54</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>21</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>39.22</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>21</v>
       </c>
@@ -6779,7 +6779,7 @@
         <v>30.15</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>21</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>31.99</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>21</v>
       </c>
@@ -6879,7 +6879,7 @@
         <v>33.729999999999997</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>21</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>21</v>
       </c>
@@ -6979,7 +6979,7 @@
         <v>49.8</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>21</v>
       </c>
@@ -7029,7 +7029,7 @@
         <v>50.7</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>21</v>
       </c>
@@ -7079,7 +7079,7 @@
         <v>50.8</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>21</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>48.8</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>21</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>49.8</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>21</v>
       </c>
@@ -7229,7 +7229,7 @@
         <v>51.2</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>21</v>
       </c>
@@ -7279,7 +7279,7 @@
         <v>51.8</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>21</v>
       </c>
@@ -7329,7 +7329,7 @@
         <v>51.1</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>21</v>
       </c>
@@ -7379,7 +7379,7 @@
         <v>48.7</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>21</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>48.7</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>21</v>
       </c>
@@ -7479,7 +7479,7 @@
         <v>51.4</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>21</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>50.7</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>21</v>
       </c>
@@ -7579,7 +7579,7 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>21</v>
       </c>
@@ -7629,7 +7629,7 @@
         <v>49.1</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>21</v>
       </c>
@@ -7679,7 +7679,7 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>21</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>21</v>
       </c>
@@ -7779,7 +7779,7 @@
         <v>52.3</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>21</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>21</v>
       </c>
@@ -7879,7 +7879,7 @@
         <v>50.9</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>21</v>
       </c>
@@ -7929,7 +7929,7 @@
         <v>49.6</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>21</v>
       </c>
@@ -7979,7 +7979,7 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>21</v>
       </c>
@@ -8029,7 +8029,7 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>21</v>
       </c>
@@ -8079,7 +8079,7 @@
         <v>51.3</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>21</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>21</v>
       </c>
@@ -8179,7 +8179,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>49</v>
       </c>
@@ -8229,7 +8229,7 @@
         <v>39.03</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>49</v>
       </c>
@@ -8279,7 +8279,7 @@
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>49</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>36.93</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>49</v>
       </c>
@@ -8379,7 +8379,7 @@
         <v>21.58</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>49</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>42.71</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>49</v>
       </c>
@@ -8479,7 +8479,7 @@
         <v>18.57</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>49</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v>38.36</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>49</v>
       </c>
@@ -8579,7 +8579,7 @@
         <v>48.83</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>49</v>
       </c>
@@ -8629,7 +8629,7 @@
         <v>28.82</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>49</v>
       </c>
@@ -8679,7 +8679,7 @@
         <v>45.81</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>49</v>
       </c>
@@ -8729,7 +8729,7 @@
         <v>34.33</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>49</v>
       </c>
@@ -8779,7 +8779,7 @@
         <v>28.32</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>49</v>
       </c>
@@ -8829,7 +8829,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>49</v>
       </c>
@@ -8879,7 +8879,7 @@
         <v>33.65</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>49</v>
       </c>
@@ -8929,7 +8929,7 @@
         <v>22.48</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>49</v>
       </c>
@@ -8979,7 +8979,7 @@
         <v>68.02</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>49</v>
       </c>
@@ -9029,7 +9029,7 @@
         <v>38.479999999999997</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>49</v>
       </c>
@@ -9079,7 +9079,7 @@
         <v>33.229999999999997</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>49</v>
       </c>
@@ -9129,7 +9129,7 @@
         <v>55.29</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>49</v>
       </c>
@@ -9179,7 +9179,7 @@
         <v>39.619999999999997</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>49</v>
       </c>
@@ -9229,7 +9229,7 @@
         <v>49.18</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>49</v>
       </c>
@@ -9279,7 +9279,7 @@
         <v>37.24</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>49</v>
       </c>
@@ -9329,7 +9329,7 @@
         <v>37.340000000000003</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>49</v>
       </c>
@@ -9379,7 +9379,7 @@
         <v>34.74</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>49</v>
       </c>
@@ -9429,7 +9429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>49</v>
       </c>
@@ -9479,7 +9479,7 @@
         <v>67.3</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>49</v>
       </c>
@@ -9529,7 +9529,7 @@
         <v>65.599999999999994</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>49</v>
       </c>
@@ -9579,7 +9579,7 @@
         <v>65.3</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>49</v>
       </c>
@@ -9629,7 +9629,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>49</v>
       </c>
@@ -9679,7 +9679,7 @@
         <v>66.5</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>49</v>
       </c>
@@ -9729,7 +9729,7 @@
         <v>67.900000000000006</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>49</v>
       </c>
@@ -9779,7 +9779,7 @@
         <v>69.2</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>49</v>
       </c>
@@ -9829,7 +9829,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>49</v>
       </c>
@@ -9879,7 +9879,7 @@
         <v>68.7</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>49</v>
       </c>
@@ -9929,7 +9929,7 @@
         <v>66.5</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>49</v>
       </c>
@@ -9979,7 +9979,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>49</v>
       </c>
@@ -10029,7 +10029,7 @@
         <v>68.5</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>49</v>
       </c>
@@ -10079,7 +10079,7 @@
         <v>69.3</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>49</v>
       </c>
@@ -10129,7 +10129,7 @@
         <v>66.2</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>49</v>
       </c>
@@ -10179,7 +10179,7 @@
         <v>66.2</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>49</v>
       </c>
@@ -10229,7 +10229,7 @@
         <v>67.099999999999994</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>49</v>
       </c>
@@ -10279,7 +10279,7 @@
         <v>69.2</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>49</v>
       </c>
@@ -10329,7 +10329,7 @@
         <v>69.8</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>49</v>
       </c>
@@ -10379,7 +10379,7 @@
         <v>67.099999999999994</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>49</v>
       </c>
@@ -10429,7 +10429,7 @@
         <v>66.400000000000006</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>49</v>
       </c>
@@ -10479,7 +10479,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>49</v>
       </c>
@@ -10529,7 +10529,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>49</v>
       </c>
@@ -10579,7 +10579,7 @@
         <v>68.2</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>49</v>
       </c>
@@ -10629,7 +10629,7 @@
         <v>69.7</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>49</v>
       </c>
@@ -10679,7 +10679,7 @@
         <v>54.2</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>51</v>
       </c>
@@ -10729,7 +10729,7 @@
         <v>61.05</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>51</v>
       </c>
@@ -10779,7 +10779,7 @@
         <v>72.03</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>51</v>
       </c>
@@ -10829,7 +10829,7 @@
         <v>63.29</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>51</v>
       </c>
@@ -10879,7 +10879,7 @@
         <v>72.13</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>51</v>
       </c>
@@ -10929,7 +10929,7 @@
         <v>54.44</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>51</v>
       </c>
@@ -10979,7 +10979,7 @@
         <v>68.209999999999994</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>51</v>
       </c>
@@ -11029,7 +11029,7 @@
         <v>64.17</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>51</v>
       </c>
@@ -11079,7 +11079,7 @@
         <v>63.97</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>51</v>
       </c>
@@ -11129,7 +11129,7 @@
         <v>60.27</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>51</v>
       </c>
@@ -11179,7 +11179,7 @@
         <v>52.09</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>51</v>
       </c>
@@ -11229,7 +11229,7 @@
         <v>65.099999999999994</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>51</v>
       </c>
@@ -11279,7 +11279,7 @@
         <v>63.78</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>51</v>
       </c>
@@ -11329,7 +11329,7 @@
         <v>86.94</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>51</v>
       </c>
@@ -11379,7 +11379,7 @@
         <v>70.42</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>51</v>
       </c>
@@ -11429,7 +11429,7 @@
         <v>63.6</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>51</v>
       </c>
@@ -11479,7 +11479,7 @@
         <v>62.07</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>51</v>
       </c>
@@ -11529,7 +11529,7 @@
         <v>65.930000000000007</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>51</v>
       </c>
@@ -11579,7 +11579,7 @@
         <v>83.12</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>51</v>
       </c>
@@ -11629,7 +11629,7 @@
         <v>61.45</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>51</v>
       </c>
@@ -11679,7 +11679,7 @@
         <v>67.150000000000006</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>51</v>
       </c>
@@ -11729,7 +11729,7 @@
         <v>86.57</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>51</v>
       </c>
@@ -11779,7 +11779,7 @@
         <v>61.27</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>51</v>
       </c>
@@ -11829,7 +11829,7 @@
         <v>71.55</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>51</v>
       </c>
@@ -11879,7 +11879,7 @@
         <v>83.43</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>51</v>
       </c>
@@ -11929,7 +11929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>51</v>
       </c>
@@ -11979,7 +11979,7 @@
         <v>76.7</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>51</v>
       </c>
@@ -12029,7 +12029,7 @@
         <v>76.8</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>51</v>
       </c>
@@ -12079,7 +12079,7 @@
         <v>77.599999999999994</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>51</v>
       </c>
@@ -12129,7 +12129,7 @@
         <v>77.3</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>51</v>
       </c>
@@ -12179,7 +12179,7 @@
         <v>76.8</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>51</v>
       </c>
@@ -12229,7 +12229,7 @@
         <v>76.599999999999994</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>51</v>
       </c>
@@ -12279,7 +12279,7 @@
         <v>77.099999999999994</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>51</v>
       </c>
@@ -12329,7 +12329,7 @@
         <v>77.8</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>51</v>
       </c>
@@ -12379,7 +12379,7 @@
         <v>77.7</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>51</v>
       </c>
@@ -12429,7 +12429,7 @@
         <v>77.900000000000006</v>
       </c>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>51</v>
       </c>
@@ -12479,7 +12479,7 @@
         <v>75.7</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>51</v>
       </c>
@@ -12529,7 +12529,7 @@
         <v>78.2</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>51</v>
       </c>
@@ -12579,7 +12579,7 @@
         <v>77.3</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>51</v>
       </c>
@@ -12629,7 +12629,7 @@
         <v>77.900000000000006</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>51</v>
       </c>
@@ -12679,7 +12679,7 @@
         <v>77.5</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>51</v>
       </c>
@@ -12729,7 +12729,7 @@
         <v>79.099999999999994</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>51</v>
       </c>
@@ -12779,7 +12779,7 @@
         <v>78.099999999999994</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>51</v>
       </c>
@@ -12829,7 +12829,7 @@
         <v>79.099999999999994</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>51</v>
       </c>
@@ -12879,7 +12879,7 @@
         <v>77.7</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>51</v>
       </c>
@@ -12929,7 +12929,7 @@
         <v>79.099999999999994</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>51</v>
       </c>
@@ -12979,7 +12979,7 @@
         <v>79.3</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>51</v>
       </c>
@@ -13029,7 +13029,7 @@
         <v>78.3</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>51</v>
       </c>
@@ -13079,7 +13079,7 @@
         <v>78.900000000000006</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>51</v>
       </c>
@@ -13129,7 +13129,7 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>51</v>
       </c>
@@ -13179,7 +13179,7 @@
         <v>71.900000000000006</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>53</v>
       </c>
@@ -13229,7 +13229,7 @@
         <v>35.56</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>53</v>
       </c>
@@ -13279,7 +13279,7 @@
         <v>38.39</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>53</v>
       </c>
@@ -13329,7 +13329,7 @@
         <v>47.82</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>53</v>
       </c>
@@ -13379,7 +13379,7 @@
         <v>52.91</v>
       </c>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>53</v>
       </c>
@@ -13429,7 +13429,7 @@
         <v>53.6</v>
       </c>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>53</v>
       </c>
@@ -13479,7 +13479,7 @@
         <v>56.43</v>
       </c>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>53</v>
       </c>
@@ -13529,7 +13529,7 @@
         <v>48.46</v>
       </c>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>53</v>
       </c>
@@ -13579,7 +13579,7 @@
         <v>31.85</v>
       </c>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>53</v>
       </c>
@@ -13629,7 +13629,7 @@
         <v>41.43</v>
       </c>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>53</v>
       </c>
@@ -13679,7 +13679,7 @@
         <v>69.430000000000007</v>
       </c>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>53</v>
       </c>
@@ -13729,7 +13729,7 @@
         <v>48.15</v>
       </c>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>53</v>
       </c>
@@ -13779,7 +13779,7 @@
         <v>39.229999999999997</v>
       </c>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>53</v>
       </c>
@@ -13829,7 +13829,7 @@
         <v>37.03</v>
       </c>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>53</v>
       </c>
@@ -13879,7 +13879,7 @@
         <v>66.02</v>
       </c>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>53</v>
       </c>
@@ -13929,7 +13929,7 @@
         <v>47.62</v>
       </c>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>53</v>
       </c>
@@ -13979,7 +13979,7 @@
         <v>68.38</v>
       </c>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>53</v>
       </c>
@@ -14029,7 +14029,7 @@
         <v>38.69</v>
       </c>
     </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>53</v>
       </c>
@@ -14079,7 +14079,7 @@
         <v>52.48</v>
       </c>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>53</v>
       </c>
@@ -14129,7 +14129,7 @@
         <v>70.03</v>
       </c>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>53</v>
       </c>
@@ -14179,7 +14179,7 @@
         <v>43.74</v>
       </c>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>53</v>
       </c>
@@ -14229,7 +14229,7 @@
         <v>66.989999999999995</v>
       </c>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>53</v>
       </c>
@@ -14279,7 +14279,7 @@
         <v>53.81</v>
       </c>
     </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>53</v>
       </c>
@@ -14329,7 +14329,7 @@
         <v>48.15</v>
       </c>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>53</v>
       </c>
@@ -14379,7 +14379,7 @@
         <v>41.04</v>
       </c>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>53</v>
       </c>
@@ -14429,7 +14429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>53</v>
       </c>
@@ -14479,7 +14479,7 @@
         <v>62.1</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>53</v>
       </c>
@@ -14529,7 +14529,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>53</v>
       </c>
@@ -14579,7 +14579,7 @@
         <v>62.8</v>
       </c>
     </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>53</v>
       </c>
@@ -14629,7 +14629,7 @@
         <v>61.7</v>
       </c>
     </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>53</v>
       </c>
@@ -14679,7 +14679,7 @@
         <v>62.7</v>
       </c>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>53</v>
       </c>
@@ -14729,7 +14729,7 @@
         <v>62.3</v>
       </c>
     </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>53</v>
       </c>
@@ -14779,7 +14779,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>53</v>
       </c>
@@ -14829,7 +14829,7 @@
         <v>64.400000000000006</v>
       </c>
     </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>53</v>
       </c>
@@ -14879,7 +14879,7 @@
         <v>62.4</v>
       </c>
     </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>53</v>
       </c>
@@ -14929,7 +14929,7 @@
         <v>62.1</v>
       </c>
     </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>53</v>
       </c>
@@ -14979,7 +14979,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>53</v>
       </c>
@@ -15029,7 +15029,7 @@
         <v>64.2</v>
       </c>
     </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>53</v>
       </c>
@@ -15079,7 +15079,7 @@
         <v>65.5</v>
       </c>
     </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>53</v>
       </c>
@@ -15129,7 +15129,7 @@
         <v>62.2</v>
       </c>
     </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>53</v>
       </c>
@@ -15179,7 +15179,7 @@
         <v>62.2</v>
       </c>
     </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>53</v>
       </c>
@@ -15229,7 +15229,7 @@
         <v>64.5</v>
       </c>
     </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>53</v>
       </c>
@@ -15279,7 +15279,7 @@
         <v>65.8</v>
       </c>
     </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>53</v>
       </c>
@@ -15329,7 +15329,7 @@
         <v>65.400000000000006</v>
       </c>
     </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>53</v>
       </c>
@@ -15379,7 +15379,7 @@
         <v>64.5</v>
       </c>
     </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>53</v>
       </c>
@@ -15429,7 +15429,7 @@
         <v>66.099999999999994</v>
       </c>
     </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>53</v>
       </c>
@@ -15479,7 +15479,7 @@
         <v>64.8</v>
       </c>
     </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>53</v>
       </c>
@@ -15529,7 +15529,7 @@
         <v>64.5</v>
       </c>
     </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>53</v>
       </c>
@@ -15579,7 +15579,7 @@
         <v>64.599999999999994</v>
       </c>
     </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>53</v>
       </c>
@@ -15629,7 +15629,7 @@
         <v>65.900000000000006</v>
       </c>
     </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>53</v>
       </c>
@@ -15679,7 +15679,7 @@
         <v>52.1</v>
       </c>
     </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>55</v>
       </c>
@@ -15729,7 +15729,7 @@
         <v>7.87</v>
       </c>
     </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>55</v>
       </c>
@@ -15779,7 +15779,7 @@
         <v>6.72</v>
       </c>
     </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>55</v>
       </c>
@@ -15829,7 +15829,7 @@
         <v>2.82</v>
       </c>
     </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>55</v>
       </c>
@@ -15879,7 +15879,7 @@
         <v>6.82</v>
       </c>
     </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>55</v>
       </c>
@@ -15929,7 +15929,7 @@
         <v>7.98</v>
       </c>
     </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>55</v>
       </c>
@@ -15979,7 +15979,7 @@
         <v>7.04</v>
       </c>
     </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>55</v>
       </c>
@@ -16029,7 +16029,7 @@
         <v>5.45</v>
       </c>
     </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>55</v>
       </c>
@@ -16079,7 +16079,7 @@
         <v>5.05</v>
       </c>
     </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>55</v>
       </c>
@@ -16129,7 +16129,7 @@
         <v>9.58</v>
       </c>
     </row>
-    <row r="312" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>55</v>
       </c>
@@ -16179,7 +16179,7 @@
         <v>3.26</v>
       </c>
     </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>55</v>
       </c>
@@ -16229,7 +16229,7 @@
         <v>9.14</v>
       </c>
     </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>55</v>
       </c>
@@ -16279,7 +16279,7 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>55</v>
       </c>
@@ -16329,7 +16329,7 @@
         <v>4.28</v>
       </c>
     </row>
-    <row r="316" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>55</v>
       </c>
@@ -16379,7 +16379,7 @@
         <v>8.42</v>
       </c>
     </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>55</v>
       </c>
@@ -16429,7 +16429,7 @@
         <v>8.3699999999999992</v>
       </c>
     </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>55</v>
       </c>
@@ -16479,7 +16479,7 @@
         <v>7.15</v>
       </c>
     </row>
-    <row r="319" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>55</v>
       </c>
@@ -16529,7 +16529,7 @@
         <v>6.19</v>
       </c>
     </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>55</v>
       </c>
@@ -16579,7 +16579,7 @@
         <v>4.96</v>
       </c>
     </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>55</v>
       </c>
@@ -16629,7 +16629,7 @@
         <v>9.2899999999999991</v>
       </c>
     </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>55</v>
       </c>
@@ -16679,7 +16679,7 @@
         <v>5.93</v>
       </c>
     </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>55</v>
       </c>
@@ -16729,7 +16729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>55</v>
       </c>
@@ -16779,7 +16779,7 @@
         <v>7.11</v>
       </c>
     </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>55</v>
       </c>
@@ -16829,7 +16829,7 @@
         <v>5.78</v>
       </c>
     </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>55</v>
       </c>
@@ -16879,7 +16879,7 @@
         <v>4.21</v>
       </c>
     </row>
-    <row r="327" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>55</v>
       </c>
@@ -16929,7 +16929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>55</v>
       </c>
@@ -16979,7 +16979,7 @@
         <v>74.8</v>
       </c>
     </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>55</v>
       </c>
@@ -17029,7 +17029,7 @@
         <v>75.8</v>
       </c>
     </row>
-    <row r="330" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>55</v>
       </c>
@@ -17079,7 +17079,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>55</v>
       </c>
@@ -17129,7 +17129,7 @@
         <v>76.3</v>
       </c>
     </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>55</v>
       </c>
@@ -17179,7 +17179,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>55</v>
       </c>
@@ -17229,7 +17229,7 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>55</v>
       </c>
@@ -17279,7 +17279,7 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>55</v>
       </c>
@@ -17329,7 +17329,7 @@
         <v>76.400000000000006</v>
       </c>
     </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>55</v>
       </c>
@@ -17379,7 +17379,7 @@
         <v>75.3</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>55</v>
       </c>
@@ -17429,7 +17429,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>55</v>
       </c>
@@ -17479,7 +17479,7 @@
         <v>75.099999999999994</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>55</v>
       </c>
@@ -17529,7 +17529,7 @@
         <v>75.3</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>55</v>
       </c>
@@ -17579,7 +17579,7 @@
         <v>76.7</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>55</v>
       </c>
@@ -17629,7 +17629,7 @@
         <v>75.900000000000006</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>55</v>
       </c>
@@ -17679,7 +17679,7 @@
         <v>77.099999999999994</v>
       </c>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>55</v>
       </c>
@@ -17729,7 +17729,7 @@
         <v>76.7</v>
       </c>
     </row>
-    <row r="344" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>55</v>
       </c>
@@ -17779,7 +17779,7 @@
         <v>76.7</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>55</v>
       </c>
@@ -17829,7 +17829,7 @@
         <v>77.3</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>55</v>
       </c>
@@ -17879,7 +17879,7 @@
         <v>76.400000000000006</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>55</v>
       </c>
@@ -17929,7 +17929,7 @@
         <v>74.900000000000006</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>55</v>
       </c>
@@ -17979,7 +17979,7 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>55</v>
       </c>
@@ -18029,7 +18029,7 @@
         <v>76.3</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>55</v>
       </c>
@@ -18079,7 +18079,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>55</v>
       </c>
@@ -18129,7 +18129,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>55</v>
       </c>
@@ -18179,7 +18179,7 @@
         <v>60.8</v>
       </c>
     </row>
-    <row r="353" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>57</v>
       </c>
@@ -18229,7 +18229,7 @@
         <v>28.76</v>
       </c>
     </row>
-    <row r="354" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>57</v>
       </c>
@@ -18279,7 +18279,7 @@
         <v>36.82</v>
       </c>
     </row>
-    <row r="355" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>57</v>
       </c>
@@ -18329,7 +18329,7 @@
         <v>28.42</v>
       </c>
     </row>
-    <row r="356" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>57</v>
       </c>
@@ -18379,7 +18379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>57</v>
       </c>
@@ -18429,7 +18429,7 @@
         <v>31.21</v>
       </c>
     </row>
-    <row r="358" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>57</v>
       </c>
@@ -18479,7 +18479,7 @@
         <v>34.53</v>
       </c>
     </row>
-    <row r="359" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>57</v>
       </c>
@@ -18529,7 +18529,7 @@
         <v>45.05</v>
       </c>
     </row>
-    <row r="360" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>57</v>
       </c>
@@ -18579,7 +18579,7 @@
         <v>31.83</v>
       </c>
     </row>
-    <row r="361" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>57</v>
       </c>
@@ -18629,7 +18629,7 @@
         <v>30.46</v>
       </c>
     </row>
-    <row r="362" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>57</v>
       </c>
@@ -18679,7 +18679,7 @@
         <v>35.75</v>
       </c>
     </row>
-    <row r="363" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>57</v>
       </c>
@@ -18729,7 +18729,7 @@
         <v>42.57</v>
       </c>
     </row>
-    <row r="364" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>57</v>
       </c>
@@ -18779,7 +18779,7 @@
         <v>34.25</v>
       </c>
     </row>
-    <row r="365" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>57</v>
       </c>
@@ -18829,7 +18829,7 @@
         <v>46.91</v>
       </c>
     </row>
-    <row r="366" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>57</v>
       </c>
@@ -18879,7 +18879,7 @@
         <v>29.76</v>
       </c>
     </row>
-    <row r="367" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>57</v>
       </c>
@@ -18929,7 +18929,7 @@
         <v>46.77</v>
       </c>
     </row>
-    <row r="368" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>57</v>
       </c>
@@ -18979,7 +18979,7 @@
         <v>39.35</v>
       </c>
     </row>
-    <row r="369" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>57</v>
       </c>
@@ -19029,7 +19029,7 @@
         <v>45.03</v>
       </c>
     </row>
-    <row r="370" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>57</v>
       </c>
@@ -19079,7 +19079,7 @@
         <v>44.83</v>
       </c>
     </row>
-    <row r="371" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>57</v>
       </c>
@@ -19129,7 +19129,7 @@
         <v>37.26</v>
       </c>
     </row>
-    <row r="372" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>57</v>
       </c>
@@ -19179,7 +19179,7 @@
         <v>31.27</v>
       </c>
     </row>
-    <row r="373" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>57</v>
       </c>
@@ -19229,7 +19229,7 @@
         <v>44.57</v>
       </c>
     </row>
-    <row r="374" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>57</v>
       </c>
@@ -19279,7 +19279,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="375" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>57</v>
       </c>
@@ -19329,7 +19329,7 @@
         <v>38.090000000000003</v>
       </c>
     </row>
-    <row r="376" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>57</v>
       </c>
@@ -19379,7 +19379,7 @@
         <v>35.57</v>
       </c>
     </row>
-    <row r="377" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>57</v>
       </c>
@@ -19429,7 +19429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>57</v>
       </c>
@@ -19479,7 +19479,7 @@
         <v>52.2</v>
       </c>
     </row>
-    <row r="379" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>57</v>
       </c>
@@ -19529,7 +19529,7 @@
         <v>52.1</v>
       </c>
     </row>
-    <row r="380" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>57</v>
       </c>
@@ -19579,7 +19579,7 @@
         <v>52.4</v>
       </c>
     </row>
-    <row r="381" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>57</v>
       </c>
@@ -19629,7 +19629,7 @@
         <v>53.6</v>
       </c>
     </row>
-    <row r="382" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>57</v>
       </c>
@@ -19679,7 +19679,7 @@
         <v>54.2</v>
       </c>
     </row>
-    <row r="383" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>57</v>
       </c>
@@ -19729,7 +19729,7 @@
         <v>53.4</v>
       </c>
     </row>
-    <row r="384" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>57</v>
       </c>
@@ -19779,7 +19779,7 @@
         <v>52.9</v>
       </c>
     </row>
-    <row r="385" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>57</v>
       </c>
@@ -19829,7 +19829,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="386" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>57</v>
       </c>
@@ -19879,7 +19879,7 @@
         <v>51.7</v>
       </c>
     </row>
-    <row r="387" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>57</v>
       </c>
@@ -19929,7 +19929,7 @@
         <v>52.4</v>
       </c>
     </row>
-    <row r="388" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>57</v>
       </c>
@@ -19979,7 +19979,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="389" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>57</v>
       </c>
@@ -20029,7 +20029,7 @@
         <v>51.8</v>
       </c>
     </row>
-    <row r="390" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>57</v>
       </c>
@@ -20079,7 +20079,7 @@
         <v>52.8</v>
       </c>
     </row>
-    <row r="391" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>57</v>
       </c>
@@ -20129,7 +20129,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="392" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>57</v>
       </c>
@@ -20179,7 +20179,7 @@
         <v>54.9</v>
       </c>
     </row>
-    <row r="393" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>57</v>
       </c>
@@ -20229,7 +20229,7 @@
         <v>55.6</v>
       </c>
     </row>
-    <row r="394" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>57</v>
       </c>
@@ -20279,7 +20279,7 @@
         <v>55.2</v>
       </c>
     </row>
-    <row r="395" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>57</v>
       </c>
@@ -20329,7 +20329,7 @@
         <v>53.4</v>
       </c>
     </row>
-    <row r="396" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>57</v>
       </c>
@@ -20379,7 +20379,7 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="397" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>57</v>
       </c>
@@ -20429,7 +20429,7 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="398" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>57</v>
       </c>
@@ -20479,7 +20479,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="399" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>57</v>
       </c>
@@ -20529,7 +20529,7 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="400" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>57</v>
       </c>
@@ -20579,7 +20579,7 @@
         <v>53.5</v>
       </c>
     </row>
-    <row r="401" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>57</v>
       </c>
@@ -20629,7 +20629,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="402" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>57</v>
       </c>
@@ -20679,7 +20679,7 @@
         <v>44.8</v>
       </c>
     </row>
-    <row r="403" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>60</v>
       </c>
@@ -20729,7 +20729,7 @@
         <v>30.48</v>
       </c>
     </row>
-    <row r="404" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>60</v>
       </c>
@@ -20779,7 +20779,7 @@
         <v>34.229999999999997</v>
       </c>
     </row>
-    <row r="405" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>60</v>
       </c>
@@ -20829,7 +20829,7 @@
         <v>38.409999999999997</v>
       </c>
     </row>
-    <row r="406" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>60</v>
       </c>
@@ -20879,7 +20879,7 @@
         <v>22.72</v>
       </c>
     </row>
-    <row r="407" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>60</v>
       </c>
@@ -20929,7 +20929,7 @@
         <v>27.39</v>
       </c>
     </row>
-    <row r="408" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>60</v>
       </c>
@@ -20979,7 +20979,7 @@
         <v>33.409999999999997</v>
       </c>
     </row>
-    <row r="409" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>60</v>
       </c>
@@ -21029,7 +21029,7 @@
         <v>27.57</v>
       </c>
     </row>
-    <row r="410" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>60</v>
       </c>
@@ -21079,7 +21079,7 @@
         <v>34.32</v>
       </c>
     </row>
-    <row r="411" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>60</v>
       </c>
@@ -21129,7 +21129,7 @@
         <v>22.38</v>
       </c>
     </row>
-    <row r="412" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>60</v>
       </c>
@@ -21179,7 +21179,7 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="413" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>60</v>
       </c>
@@ -21229,7 +21229,7 @@
         <v>32.89</v>
       </c>
     </row>
-    <row r="414" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>60</v>
       </c>
@@ -21279,7 +21279,7 @@
         <v>26.91</v>
       </c>
     </row>
-    <row r="415" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>60</v>
       </c>
@@ -21329,7 +21329,7 @@
         <v>29.59</v>
       </c>
     </row>
-    <row r="416" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>60</v>
       </c>
@@ -21379,7 +21379,7 @@
         <v>32.770000000000003</v>
       </c>
     </row>
-    <row r="417" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>60</v>
       </c>
@@ -21429,7 +21429,7 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="418" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>60</v>
       </c>
@@ -21479,7 +21479,7 @@
         <v>36.14</v>
       </c>
     </row>
-    <row r="419" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>60</v>
       </c>
@@ -21529,7 +21529,7 @@
         <v>40.32</v>
       </c>
     </row>
-    <row r="420" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>60</v>
       </c>
@@ -21579,7 +21579,7 @@
         <v>32.36</v>
       </c>
     </row>
-    <row r="421" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>60</v>
       </c>
@@ -21629,7 +21629,7 @@
         <v>33.57</v>
       </c>
     </row>
-    <row r="422" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>60</v>
       </c>
@@ -21679,7 +21679,7 @@
         <v>43.17</v>
       </c>
     </row>
-    <row r="423" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>60</v>
       </c>
@@ -21729,7 +21729,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="424" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>60</v>
       </c>
@@ -21779,7 +21779,7 @@
         <v>25.96</v>
       </c>
     </row>
-    <row r="425" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>60</v>
       </c>
@@ -21829,7 +21829,7 @@
         <v>22.97</v>
       </c>
     </row>
-    <row r="426" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>60</v>
       </c>
@@ -21879,7 +21879,7 @@
         <v>29.69</v>
       </c>
     </row>
-    <row r="427" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>60</v>
       </c>
@@ -21929,7 +21929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>60</v>
       </c>
@@ -21979,7 +21979,7 @@
         <v>46.4</v>
       </c>
     </row>
-    <row r="429" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>60</v>
       </c>
@@ -22029,7 +22029,7 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="430" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>60</v>
       </c>
@@ -22079,7 +22079,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="431" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>60</v>
       </c>
@@ -22129,7 +22129,7 @@
         <v>46.3</v>
       </c>
     </row>
-    <row r="432" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>60</v>
       </c>
@@ -22179,7 +22179,7 @@
         <v>46.4</v>
       </c>
     </row>
-    <row r="433" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>60</v>
       </c>
@@ -22229,7 +22229,7 @@
         <v>48.2</v>
       </c>
     </row>
-    <row r="434" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>60</v>
       </c>
@@ -22279,7 +22279,7 @@
         <v>49.3</v>
       </c>
     </row>
-    <row r="435" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>60</v>
       </c>
@@ -22329,7 +22329,7 @@
         <v>47.8</v>
       </c>
     </row>
-    <row r="436" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>60</v>
       </c>
@@ -22379,7 +22379,7 @@
         <v>44.7</v>
       </c>
     </row>
-    <row r="437" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>60</v>
       </c>
@@ -22429,7 +22429,7 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="438" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>60</v>
       </c>
@@ -22479,7 +22479,7 @@
         <v>48.2</v>
       </c>
     </row>
-    <row r="439" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>60</v>
       </c>
@@ -22529,7 +22529,7 @@
         <v>47.7</v>
       </c>
     </row>
-    <row r="440" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>60</v>
       </c>
@@ -22579,7 +22579,7 @@
         <v>50.8</v>
       </c>
     </row>
-    <row r="441" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>60</v>
       </c>
@@ -22629,7 +22629,7 @@
         <v>45.2</v>
       </c>
     </row>
-    <row r="442" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>60</v>
       </c>
@@ -22679,7 +22679,7 @@
         <v>43.3</v>
       </c>
     </row>
-    <row r="443" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>60</v>
       </c>
@@ -22729,7 +22729,7 @@
         <v>48.3</v>
       </c>
     </row>
-    <row r="444" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>60</v>
       </c>
@@ -22779,7 +22779,7 @@
         <v>49.8</v>
       </c>
     </row>
-    <row r="445" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>60</v>
       </c>
@@ -22829,7 +22829,7 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="446" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>60</v>
       </c>
@@ -22879,7 +22879,7 @@
         <v>46.4</v>
       </c>
     </row>
-    <row r="447" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>60</v>
       </c>
@@ -22929,7 +22929,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="448" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>60</v>
       </c>
@@ -22979,7 +22979,7 @@
         <v>47.8</v>
       </c>
     </row>
-    <row r="449" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>60</v>
       </c>
@@ -23029,7 +23029,7 @@
         <v>49.4</v>
       </c>
     </row>
-    <row r="450" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>60</v>
       </c>
@@ -23079,7 +23079,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="451" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>60</v>
       </c>
@@ -23129,7 +23129,7 @@
         <v>49.9</v>
       </c>
     </row>
-    <row r="452" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>60</v>
       </c>
@@ -23179,7 +23179,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="453" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>63</v>
       </c>
@@ -23229,7 +23229,7 @@
         <v>14.42</v>
       </c>
     </row>
-    <row r="454" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>63</v>
       </c>
@@ -23279,7 +23279,7 @@
         <v>16.46</v>
       </c>
     </row>
-    <row r="455" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>63</v>
       </c>
@@ -23329,7 +23329,7 @@
         <v>7.48</v>
       </c>
     </row>
-    <row r="456" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>63</v>
       </c>
@@ -23379,7 +23379,7 @@
         <v>13.92</v>
       </c>
     </row>
-    <row r="457" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>63</v>
       </c>
@@ -23429,7 +23429,7 @@
         <v>14.66</v>
       </c>
     </row>
-    <row r="458" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>63</v>
       </c>
@@ -23479,7 +23479,7 @@
         <v>12.79</v>
       </c>
     </row>
-    <row r="459" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>63</v>
       </c>
@@ -23529,7 +23529,7 @@
         <v>8.64</v>
       </c>
     </row>
-    <row r="460" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>63</v>
       </c>
@@ -23579,7 +23579,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="461" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>63</v>
       </c>
@@ -23629,7 +23629,7 @@
         <v>10.18</v>
       </c>
     </row>
-    <row r="462" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>63</v>
       </c>
@@ -23679,7 +23679,7 @@
         <v>18.12</v>
       </c>
     </row>
-    <row r="463" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>63</v>
       </c>
@@ -23729,7 +23729,7 @@
         <v>12.86</v>
       </c>
     </row>
-    <row r="464" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>63</v>
       </c>
@@ -23779,7 +23779,7 @@
         <v>17.309999999999999</v>
       </c>
     </row>
-    <row r="465" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>63</v>
       </c>
@@ -23829,7 +23829,7 @@
         <v>10.11</v>
       </c>
     </row>
-    <row r="466" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>63</v>
       </c>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>63</v>
       </c>
@@ -23929,7 +23929,7 @@
         <v>18.77</v>
       </c>
     </row>
-    <row r="468" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>63</v>
       </c>
@@ -23979,7 +23979,7 @@
         <v>18.309999999999999</v>
       </c>
     </row>
-    <row r="469" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>63</v>
       </c>
@@ -24029,7 +24029,7 @@
         <v>11.85</v>
       </c>
     </row>
-    <row r="470" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>63</v>
       </c>
@@ -24079,7 +24079,7 @@
         <v>11.69</v>
       </c>
     </row>
-    <row r="471" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>63</v>
       </c>
@@ -24129,7 +24129,7 @@
         <v>8.5299999999999994</v>
       </c>
     </row>
-    <row r="472" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>63</v>
       </c>
@@ -24179,7 +24179,7 @@
         <v>15.51</v>
       </c>
     </row>
-    <row r="473" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>63</v>
       </c>
@@ -24229,7 +24229,7 @@
         <v>8.74</v>
       </c>
     </row>
-    <row r="474" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>63</v>
       </c>
@@ -24279,7 +24279,7 @@
         <v>12.53</v>
       </c>
     </row>
-    <row r="475" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>63</v>
       </c>
@@ -24329,7 +24329,7 @@
         <v>11.92</v>
       </c>
     </row>
-    <row r="476" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>63</v>
       </c>
@@ -24379,7 +24379,7 @@
         <v>18.940000000000001</v>
       </c>
     </row>
-    <row r="477" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>63</v>
       </c>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>63</v>
       </c>
@@ -24479,7 +24479,7 @@
         <v>50.9</v>
       </c>
     </row>
-    <row r="479" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>63</v>
       </c>
@@ -24529,7 +24529,7 @@
         <v>51.3</v>
       </c>
     </row>
-    <row r="480" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>63</v>
       </c>
@@ -24579,7 +24579,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="481" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>63</v>
       </c>
@@ -24629,7 +24629,7 @@
         <v>50.7</v>
       </c>
     </row>
-    <row r="482" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>63</v>
       </c>
@@ -24679,7 +24679,7 @@
         <v>50.3</v>
       </c>
     </row>
-    <row r="483" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>63</v>
       </c>
@@ -24729,7 +24729,7 @@
         <v>51.5</v>
       </c>
     </row>
-    <row r="484" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>63</v>
       </c>
@@ -24779,7 +24779,7 @@
         <v>51.7</v>
       </c>
     </row>
-    <row r="485" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>63</v>
       </c>
@@ -24829,7 +24829,7 @@
         <v>50.7</v>
       </c>
     </row>
-    <row r="486" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>63</v>
       </c>
@@ -24879,7 +24879,7 @@
         <v>50.3</v>
       </c>
     </row>
-    <row r="487" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>63</v>
       </c>
@@ -24929,7 +24929,7 @@
         <v>49.7</v>
       </c>
     </row>
-    <row r="488" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>63</v>
       </c>
@@ -24979,7 +24979,7 @@
         <v>51.2</v>
       </c>
     </row>
-    <row r="489" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>63</v>
       </c>
@@ -25029,7 +25029,7 @@
         <v>50.6</v>
       </c>
     </row>
-    <row r="490" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>63</v>
       </c>
@@ -25079,7 +25079,7 @@
         <v>53.9</v>
       </c>
     </row>
-    <row r="491" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>63</v>
       </c>
@@ -25129,7 +25129,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="492" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
         <v>63</v>
       </c>
@@ -25179,7 +25179,7 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="493" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>63</v>
       </c>
@@ -25229,7 +25229,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="494" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>63</v>
       </c>
@@ -25279,7 +25279,7 @@
         <v>52.3</v>
       </c>
     </row>
-    <row r="495" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>63</v>
       </c>
@@ -25329,7 +25329,7 @@
         <v>52.8</v>
       </c>
     </row>
-    <row r="496" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
         <v>63</v>
       </c>
@@ -25379,7 +25379,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="497" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>63</v>
       </c>
@@ -25429,7 +25429,7 @@
         <v>49.6</v>
       </c>
     </row>
-    <row r="498" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>63</v>
       </c>
@@ -25479,7 +25479,7 @@
         <v>52.3</v>
       </c>
     </row>
-    <row r="499" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>63</v>
       </c>
@@ -25529,7 +25529,7 @@
         <v>52.7</v>
       </c>
     </row>
-    <row r="500" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>63</v>
       </c>
@@ -25579,7 +25579,7 @@
         <v>51.4</v>
       </c>
     </row>
-    <row r="501" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>63</v>
       </c>
@@ -25629,7 +25629,7 @@
         <v>51.1</v>
       </c>
     </row>
-    <row r="502" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>63</v>
       </c>
@@ -25689,17 +25689,17 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
-    <col min="3" max="3" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1796875" customWidth="1"/>
+    <col min="3" max="3" width="43.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -25713,119 +25713,119 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="2">
         <v>45389</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>24</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D3" s="2">
         <v>45389</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="2">
         <v>45391</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D5" s="2">
         <v>45391</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>27</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="2">
         <v>45391</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>28</v>
       </c>
       <c r="B7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D7" s="2">
         <v>45391</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>29</v>
       </c>
       <c r="B8" t="s">
         <v>45</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D8" s="2">
         <v>45391</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D9" s="2">
         <v>45391</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -25839,21 +25839,21 @@
         <v>45391</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>32</v>
       </c>
       <c r="B11" t="s">
         <v>47</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D11" s="2">
         <v>45391</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -25864,6 +25864,15 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C10" r:id="rId1" xr:uid="{CC6478B3-1E7C-4FF9-AAAB-970E6BC7C775}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{29AA96E0-4DF4-4694-AF5A-D47725909473}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{902195FD-6BDB-4214-9FC9-D9A450E1C7D2}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{CC150293-1979-46E0-A54B-9462EB695CC0}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{32F648E5-4664-4CC1-AC97-C14EC2B9E2CD}"/>
+    <hyperlink ref="C6" r:id="rId6" xr:uid="{D0455280-0227-45C5-8CBF-C589C618B80A}"/>
+    <hyperlink ref="C7" r:id="rId7" xr:uid="{3952A9FE-69E9-4E39-A88C-C6F5B253E4F1}"/>
+    <hyperlink ref="C8" r:id="rId8" xr:uid="{041F4F95-4049-4E47-91D1-65BF35FD7D36}"/>
+    <hyperlink ref="C9" r:id="rId9" xr:uid="{66547AA8-C4B8-47E4-99D7-BA3DE2623569}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{FCEA07CE-BD20-4DAA-979C-F70BB12E25A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
